--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82054.39513162769</v>
+        <v>15470532.96814693</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82054.39513162769</v>
+        <v>15470532.96814693</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>189197.3751084797</v>
+        <v>22257214.51397497</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189197.3751084797</v>
+        <v>22257214.51397497</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1492322570.913116</v>
+        <v>39110846.35580642</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16544.93234122268</v>
+        <v>1062373.509275835</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31331.3459560402</v>
+        <v>1887106.740427915</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46533.02879631304</v>
+        <v>2711839.971579995</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60743.05257622884</v>
+        <v>3536182.089465044</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74953.11478657981</v>
+        <v>4360586.565165434</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89163.4519223516</v>
+        <v>5184991.040865825</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>103374.80514187</v>
+        <v>6009992.397524194</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>117584.5524355846</v>
+        <v>6834858.494384586</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>132899.6414923969</v>
+        <v>7216801.286771092</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>148866.0998300621</v>
+        <v>7698205.126147626</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>164832.5581677274</v>
+        <v>8179608.965524158</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180799.0165053927</v>
+        <v>8661012.804900691</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>196765.4748430579</v>
+        <v>9142416.644277222</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>213502.2452082997</v>
+        <v>9476816.811653756</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>230470.6612457996</v>
+        <v>9843388.075732308</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>200</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>116</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
